--- a/statistiche/bpic2012RandomForestCounterfactualsWithMax_1/204583.xlsx
+++ b/statistiche/bpic2012RandomForestCounterfactualsWithMax_1/204583.xlsx
@@ -458,182 +458,182 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>W_Beoordelen fraude-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>O_SELECTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>W_Valideren aanvraag-COMPLETE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>W_Beoordelen fraude-START</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>A_ACTIVATED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>A_APPROVED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-COMPLETE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>W_Beoordelen fraude-COMPLETE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>A_PARTLYSUBMITTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-START</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen offertes-START</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-COMPLETE</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>A_SUBMITTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>A_REGISTERED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>O_SENT_BACK-COMPLETE</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-START</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-START</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>O_CREATED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>O_ACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>W_Wijzigen contractgegevens-SCHEDULE</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>A_SUBMITTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>A_ACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen offertes-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>A_PREACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>A_FINALIZED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>O_DECLINED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>A_DECLINED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>A_CANCELLED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>W_Valideren aanvraag-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>O_CANCELLED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>W_Nabellen offertes-SCHEDULE</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-START</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>A_FINALIZED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>O_SENT-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>W_Valideren aanvraag-START</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>W_Valideren aanvraag-COMPLETE</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>O_SELECTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-START</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>A_DECLINED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen offertes-COMPLETE</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>A_APPROVED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-COMPLETE</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-COMPLETE</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>O_ACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-COMPLETE</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>A_PREACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>O_CANCELLED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen offertes-START</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>A_ACTIVATED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>A_ACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>O_CREATED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>A_REGISTERED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>A_CANCELLED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-START</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>W_Valideren aanvraag-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>O_DECLINED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>O_SENT_BACK-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-START</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>O_SENT-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>A_PARTLYSUBMITTED-COMPLETE</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2" t="n">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="AL4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="3" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="3" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2" t="n">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="2" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="2" t="n">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="AL6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="3" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -1411,10 +1411,10 @@
         <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7" s="3" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2" t="n">
         <v>0</v>
@@ -1484,13 +1484,13 @@
         <v>0</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="2" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="2" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="2" t="n">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="2" t="n">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="AL8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8" s="3" t="inlineStr">
         <is>
@@ -1569,10 +1569,10 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9" s="3" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>0</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2" t="n">
         <v>0</v>
@@ -1744,22 +1744,22 @@
         <v>0</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" s="2" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="2" t="n">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="2" t="n">
         <v>0</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="AI10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10" s="2" t="n">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="AL10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10" s="3" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1871,25 +1871,25 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ11" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="3" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="2" t="n">
         <v>0</v>
@@ -2004,22 +2004,22 @@
         <v>0</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W12" s="2" t="n">
         <v>0</v>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="2" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="AF12" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="2" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="AI12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ12" s="2" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="AL12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="3" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -2125,28 +2125,28 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -2176,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
@@ -2185,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ13" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13" s="3" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="2" t="n">
         <v>0</v>
@@ -2264,23 +2264,23 @@
         <v>0</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="V14" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="W14" s="2" t="n">
         <v>0</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="AB14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="2" t="n">
         <v>0</v>
@@ -2309,17 +2309,17 @@
         <v>0</v>
       </c>
       <c r="AF14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="AG14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ14" s="2" t="n">
         <v>0</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="AL14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="3" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -2385,29 +2385,29 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
         <v>2</v>
       </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -2436,17 +2436,17 @@
         <v>0</v>
       </c>
       <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
         <v>2</v>
       </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ15" t="n">
         <v>0</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15" s="3" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>0</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="2" t="n">
         <v>0</v>
@@ -2524,62 +2524,62 @@
         <v>0</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="W16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="V16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ16" s="2" t="n">
         <v>0</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="AL16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16" s="3" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -2645,68 +2645,68 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>3</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
         <v>2</v>
       </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ17" t="n">
         <v>0</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17" s="3" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="2" t="n">
         <v>0</v>
@@ -2784,23 +2784,23 @@
         <v>0</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="V18" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="W18" s="2" t="n">
         <v>0</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="AB18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="2" t="n">
         <v>0</v>
@@ -2829,17 +2829,17 @@
         <v>0</v>
       </c>
       <c r="AF18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="AG18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ18" s="2" t="n">
         <v>0</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="AL18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18" s="3" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2905,29 +2905,29 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
         <v>3</v>
       </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -2956,17 +2956,17 @@
         <v>0</v>
       </c>
       <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
         <v>3</v>
       </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ19" t="n">
         <v>0</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19" s="3" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="2" t="n">
         <v>0</v>
@@ -3044,62 +3044,62 @@
         <v>0</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="W20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="V20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ20" s="2" t="n">
         <v>0</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="AL20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20" s="3" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3171,62 +3171,62 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>4</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
         <v>3</v>
       </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ21" t="n">
         <v>0</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21" s="3" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="2" t="n">
         <v>0</v>
@@ -3304,23 +3304,23 @@
         <v>0</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="V22" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="W22" s="2" t="n">
         <v>0</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="AB22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="2" t="n">
         <v>0</v>
@@ -3349,17 +3349,17 @@
         <v>0</v>
       </c>
       <c r="AF22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="AG22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI22" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ22" s="2" t="n">
         <v>0</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="AL22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22" s="3" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3431,23 +3431,23 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
         <v>4</v>
       </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -3473,20 +3473,20 @@
         <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
         <v>4</v>
       </c>
-      <c r="AG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ23" t="n">
         <v>0</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="AL23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23" s="3" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>0</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="2" t="n">
         <v>0</v>
@@ -3564,62 +3564,62 @@
         <v>0</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="W24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="V24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI24" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ24" s="2" t="n">
         <v>0</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="AL24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="3" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3691,62 +3691,62 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>5</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
         <v>4</v>
       </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ25" t="n">
         <v>0</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="AL25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25" s="3" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="2" t="n">
         <v>0</v>
@@ -3824,23 +3824,23 @@
         <v>0</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="V26" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="W26" s="2" t="n">
         <v>0</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="AB26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="2" t="n">
         <v>0</v>
@@ -3869,17 +3869,17 @@
         <v>0</v>
       </c>
       <c r="AF26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AG26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI26" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ26" s="2" t="n">
         <v>0</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="AL26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26" s="3" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -3951,23 +3951,23 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
         <v>5</v>
       </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27" t="n">
         <v>0</v>
@@ -3993,20 +3993,20 @@
         <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
         <v>5</v>
       </c>
-      <c r="AG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ27" t="n">
         <v>0</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="AL27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27" s="3" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>0</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="2" t="n">
         <v>0</v>
@@ -4084,62 +4084,62 @@
         <v>0</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="W28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="V28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI28" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ28" s="2" t="n">
         <v>0</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="AL28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28" s="3" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -4193,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -4211,62 +4211,62 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>6</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
         <v>5</v>
       </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ29" t="n">
         <v>0</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="AL29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29" s="3" t="inlineStr">
         <is>
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="2" t="n">
         <v>0</v>
@@ -4344,23 +4344,23 @@
         <v>0</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="V30" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="W30" s="2" t="n">
         <v>0</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="AB30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="2" t="n">
         <v>0</v>
@@ -4389,17 +4389,17 @@
         <v>0</v>
       </c>
       <c r="AF30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="AG30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI30" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ30" s="2" t="n">
         <v>0</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>0</v>
       </c>
       <c r="AL30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30" s="3" t="inlineStr">
         <is>
@@ -4432,7 +4432,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -4453,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -4471,23 +4471,23 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
         <v>6</v>
       </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC31" t="n">
         <v>0</v>
@@ -4513,20 +4513,20 @@
         <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
         <v>6</v>
       </c>
-      <c r="AG31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ31" t="n">
         <v>0</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="AL31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31" s="3" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>0</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="2" t="n">
         <v>0</v>
@@ -4604,62 +4604,62 @@
         <v>0</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="W32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="V32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF32" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI32" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ32" s="2" t="n">
         <v>0</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="AL32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32" s="3" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -4713,7 +4713,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -4731,62 +4731,62 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>7</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="n">
         <v>6</v>
       </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ33" t="n">
         <v>0</v>
       </c>
@@ -4794,16 +4794,16 @@
         <v>0</v>
       </c>
       <c r="AL33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="3" t="inlineStr">
         <is>
           <t>deviant</t>
         </is>
       </c>
-      <c r="AN33" t="inlineStr">
-        <is>
-          <t>regular</t>
+      <c r="AN33" s="3" t="inlineStr">
+        <is>
+          <t>deviant</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>0</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="2" t="n">
         <v>0</v>
@@ -4864,62 +4864,62 @@
         <v>0</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="W34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="V34" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W34" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC34" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE34" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF34" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG34" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH34" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI34" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ34" s="2" t="n">
         <v>0</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="AL34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34" s="3" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -4973,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -4991,62 +4991,62 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>7</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="n">
         <v>6</v>
       </c>
-      <c r="V35" t="n">
-        <v>1</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ35" t="n">
         <v>0</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>0</v>
       </c>
       <c r="AL35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35" s="3" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>0</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>0</v>
@@ -5118,68 +5118,68 @@
         <v>0</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="W36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="V36" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF36" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI36" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ36" s="2" t="n">
         <v>0</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="AL36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="3" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -5245,68 +5245,68 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>7</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI37" t="n">
         <v>6</v>
       </c>
-      <c r="V37" t="n">
-        <v>1</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ37" t="n">
         <v>0</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="AL37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="3" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>0</v>
@@ -5378,29 +5378,29 @@
         <v>0</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="V38" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W38" s="2" t="n">
         <v>0</v>
       </c>
@@ -5429,17 +5429,17 @@
         <v>0</v>
       </c>
       <c r="AF38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="AG38" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH38" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI38" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ38" s="2" t="n">
         <v>0</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>0</v>
       </c>
       <c r="AL38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38" s="3" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -5505,29 +5505,29 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
         <v>7</v>
       </c>
-      <c r="V39" t="n">
-        <v>1</v>
-      </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
@@ -5553,20 +5553,20 @@
         <v>0</v>
       </c>
       <c r="AE39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI39" t="n">
         <v>7</v>
       </c>
-      <c r="AG39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ39" t="n">
         <v>0</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="AL39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="3" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>0</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" s="2" t="n">
         <v>0</v>
@@ -5638,29 +5638,29 @@
         <v>0</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="V40" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W40" s="2" t="n">
         <v>0</v>
       </c>
@@ -5689,25 +5689,25 @@
         <v>0</v>
       </c>
       <c r="AF40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="AG40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI40" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="3" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -5765,29 +5765,29 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
         <v>7</v>
       </c>
-      <c r="V41" t="n">
-        <v>1</v>
-      </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
@@ -5813,28 +5813,28 @@
         <v>0</v>
       </c>
       <c r="AE41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="n">
         <v>7</v>
       </c>
-      <c r="AG41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK41" t="n">
         <v>0</v>
       </c>
       <c r="AL41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41" s="3" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" s="2" t="n">
         <v>0</v>
@@ -5898,29 +5898,29 @@
         <v>0</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="V42" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W42" s="2" t="n">
         <v>0</v>
       </c>
@@ -5949,25 +5949,25 @@
         <v>0</v>
       </c>
       <c r="AF42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="AG42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI42" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42" s="3" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -6025,29 +6025,29 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
         <v>7</v>
       </c>
-      <c r="V43" t="n">
-        <v>1</v>
-      </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
@@ -6073,28 +6073,28 @@
         <v>0</v>
       </c>
       <c r="AE43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI43" t="n">
         <v>7</v>
       </c>
-      <c r="AG43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK43" t="n">
         <v>0</v>
       </c>
       <c r="AL43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43" s="3" t="inlineStr">
         <is>
@@ -6125,7 +6125,7 @@
         <v>0</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" s="2" t="n">
         <v>0</v>
@@ -6134,7 +6134,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>0</v>
@@ -6158,29 +6158,29 @@
         <v>0</v>
       </c>
       <c r="O44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="V44" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W44" s="2" t="n">
         <v>0</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD44" s="2" t="n">
         <v>0</v>
@@ -6209,25 +6209,25 @@
         <v>0</v>
       </c>
       <c r="AF44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="AG44" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH44" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI44" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44" s="3" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -6261,7 +6261,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -6285,29 +6285,29 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
         <v>7</v>
       </c>
-      <c r="V45" t="n">
-        <v>1</v>
-      </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
@@ -6327,34 +6327,34 @@
         <v>1</v>
       </c>
       <c r="AC45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
       </c>
       <c r="AE45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI45" t="n">
         <v>7</v>
       </c>
-      <c r="AG45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK45" t="n">
         <v>0</v>
       </c>
       <c r="AL45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM45" s="3" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>0</v>
@@ -6403,7 +6403,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="2" t="n">
         <v>1</v>
@@ -6418,29 +6418,29 @@
         <v>0</v>
       </c>
       <c r="O46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="V46" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W46" s="2" t="n">
         <v>0</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD46" s="2" t="n">
         <v>0</v>
@@ -6469,25 +6469,25 @@
         <v>0</v>
       </c>
       <c r="AF46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="AG46" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH46" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI46" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46" s="3" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -6530,7 +6530,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
         <v>1</v>
@@ -6545,29 +6545,29 @@
         <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47" t="n">
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47" t="n">
         <v>0</v>
       </c>
       <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
         <v>7</v>
       </c>
-      <c r="V47" t="n">
-        <v>1</v>
-      </c>
       <c r="W47" t="n">
         <v>0</v>
       </c>
@@ -6587,34 +6587,34 @@
         <v>1</v>
       </c>
       <c r="AC47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
       </c>
       <c r="AE47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI47" t="n">
         <v>7</v>
       </c>
-      <c r="AG47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK47" t="n">
         <v>0</v>
       </c>
       <c r="AL47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM47" s="3" t="inlineStr">
         <is>
@@ -6654,7 +6654,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>0</v>
@@ -6663,7 +6663,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="2" t="n">
         <v>1</v>
@@ -6678,31 +6678,31 @@
         <v>0</v>
       </c>
       <c r="O48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="V48" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X48" s="2" t="n">
         <v>0</v>
@@ -6714,13 +6714,13 @@
         <v>1</v>
       </c>
       <c r="AA48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB48" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD48" s="2" t="n">
         <v>0</v>
@@ -6729,25 +6729,25 @@
         <v>0</v>
       </c>
       <c r="AF48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="AG48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI48" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48" s="3" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -6790,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
         <v>1</v>
@@ -6805,31 +6805,31 @@
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49" t="n">
         <v>0</v>
       </c>
       <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
         <v>7</v>
       </c>
-      <c r="V49" t="n">
-        <v>1</v>
-      </c>
       <c r="W49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X49" t="n">
         <v>0</v>
@@ -6841,40 +6841,40 @@
         <v>1</v>
       </c>
       <c r="AA49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB49" t="n">
         <v>1</v>
       </c>
       <c r="AC49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
       </c>
       <c r="AE49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI49" t="n">
         <v>7</v>
       </c>
-      <c r="AG49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK49" t="n">
         <v>0</v>
       </c>
       <c r="AL49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM49" s="3" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" s="2" t="n">
         <v>0</v>
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" s="2" t="n">
         <v>1</v>
@@ -6938,31 +6938,31 @@
         <v>0</v>
       </c>
       <c r="O50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="V50" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X50" s="2" t="n">
         <v>0</v>
@@ -6974,13 +6974,13 @@
         <v>1</v>
       </c>
       <c r="AA50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB50" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD50" s="2" t="n">
         <v>0</v>
@@ -6989,25 +6989,25 @@
         <v>0</v>
       </c>
       <c r="AF50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="AG50" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH50" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI50" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK50" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM50" s="3" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -7050,7 +7050,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
         <v>1</v>
@@ -7065,31 +7065,31 @@
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T51" t="n">
         <v>0</v>
       </c>
       <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
         <v>7</v>
       </c>
-      <c r="V51" t="n">
-        <v>1</v>
-      </c>
       <c r="W51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X51" t="n">
         <v>0</v>
@@ -7101,40 +7101,40 @@
         <v>1</v>
       </c>
       <c r="AA51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB51" t="n">
         <v>1</v>
       </c>
       <c r="AC51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
       </c>
       <c r="AE51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI51" t="n">
         <v>7</v>
       </c>
-      <c r="AG51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK51" t="n">
         <v>1</v>
       </c>
       <c r="AL51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM51" s="3" t="inlineStr">
         <is>
@@ -7168,13 +7168,13 @@
         <v>1</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" s="2" t="n">
         <v>0</v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="2" t="n">
         <v>1</v>
@@ -7198,31 +7198,31 @@
         <v>0</v>
       </c>
       <c r="O52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U52" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="V52" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X52" s="2" t="n">
         <v>0</v>
@@ -7234,13 +7234,13 @@
         <v>1</v>
       </c>
       <c r="AA52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB52" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD52" s="2" t="n">
         <v>0</v>
@@ -7249,17 +7249,17 @@
         <v>0</v>
       </c>
       <c r="AF52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI52" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="AG52" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH52" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI52" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ52" s="2" t="n">
         <v>1</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>1</v>
       </c>
       <c r="AL52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM52" s="3" t="inlineStr">
         <is>
@@ -7295,13 +7295,13 @@
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -7310,7 +7310,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
         <v>1</v>
@@ -7325,31 +7325,31 @@
         <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
       </c>
       <c r="S53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T53" t="n">
         <v>0</v>
       </c>
       <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
         <v>7</v>
       </c>
-      <c r="V53" t="n">
-        <v>1</v>
-      </c>
       <c r="W53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X53" t="n">
         <v>0</v>
@@ -7361,32 +7361,32 @@
         <v>1</v>
       </c>
       <c r="AA53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB53" t="n">
         <v>1</v>
       </c>
       <c r="AC53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
       </c>
       <c r="AE53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI53" t="n">
         <v>7</v>
       </c>
-      <c r="AG53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ53" t="n">
         <v>1</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>1</v>
       </c>
       <c r="AL53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM53" s="3" t="inlineStr">
         <is>
@@ -7428,22 +7428,22 @@
         <v>1</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" s="2" t="n">
         <v>1</v>
@@ -7458,31 +7458,31 @@
         <v>0</v>
       </c>
       <c r="O54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="V54" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X54" s="2" t="n">
         <v>0</v>
@@ -7494,32 +7494,32 @@
         <v>1</v>
       </c>
       <c r="AA54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB54" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI54" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="AG54" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH54" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI54" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ54" s="2" t="n">
         <v>1</v>
       </c>
@@ -7527,7 +7527,7 @@
         <v>1</v>
       </c>
       <c r="AL54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM54" s="3" t="inlineStr">
         <is>
@@ -7555,22 +7555,22 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
         <v>1</v>
@@ -7585,31 +7585,31 @@
         <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T55" t="n">
         <v>0</v>
       </c>
       <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
         <v>7</v>
       </c>
-      <c r="V55" t="n">
-        <v>1</v>
-      </c>
       <c r="W55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X55" t="n">
         <v>0</v>
@@ -7621,32 +7621,32 @@
         <v>1</v>
       </c>
       <c r="AA55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB55" t="n">
         <v>1</v>
       </c>
       <c r="AC55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI55" t="n">
         <v>7</v>
       </c>
-      <c r="AG55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ55" t="n">
         <v>1</v>
       </c>
@@ -7654,7 +7654,7 @@
         <v>1</v>
       </c>
       <c r="AL55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM55" s="3" t="inlineStr">
         <is>
@@ -7688,22 +7688,22 @@
         <v>1</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" s="2" t="n">
         <v>1</v>
@@ -7715,37 +7715,37 @@
         <v>0</v>
       </c>
       <c r="N56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T56" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="V56" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y56" s="2" t="n">
         <v>0</v>
@@ -7754,32 +7754,32 @@
         <v>1</v>
       </c>
       <c r="AA56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB56" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE56" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI56" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="AG56" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH56" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI56" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ56" s="2" t="n">
         <v>1</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>1</v>
       </c>
       <c r="AL56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM56" s="3" t="inlineStr">
         <is>
@@ -7815,22 +7815,22 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
         <v>1</v>
@@ -7842,37 +7842,37 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T57" t="n">
         <v>0</v>
       </c>
       <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
         <v>7</v>
       </c>
-      <c r="V57" t="n">
-        <v>1</v>
-      </c>
       <c r="W57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y57" t="n">
         <v>0</v>
@@ -7881,32 +7881,32 @@
         <v>1</v>
       </c>
       <c r="AA57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB57" t="n">
         <v>1</v>
       </c>
       <c r="AC57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI57" t="n">
         <v>7</v>
       </c>
-      <c r="AG57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ57" t="n">
         <v>1</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>1</v>
       </c>
       <c r="AL57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM57" s="3" t="inlineStr">
         <is>
@@ -7948,22 +7948,22 @@
         <v>1</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" s="2" t="n">
         <v>1</v>
@@ -7978,34 +7978,34 @@
         <v>1</v>
       </c>
       <c r="O58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="V58" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="2" t="n">
         <v>0</v>
@@ -8020,26 +8020,26 @@
         <v>1</v>
       </c>
       <c r="AC58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI58" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="AG58" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH58" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI58" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ58" s="2" t="n">
         <v>1</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>1</v>
       </c>
       <c r="AL58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM58" s="3" t="inlineStr">
         <is>
@@ -8075,22 +8075,22 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
         <v>1</v>
@@ -8105,34 +8105,34 @@
         <v>1</v>
       </c>
       <c r="O59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T59" t="n">
         <v>0</v>
       </c>
       <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
         <v>7</v>
       </c>
-      <c r="V59" t="n">
-        <v>1</v>
-      </c>
       <c r="W59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y59" t="n">
         <v>0</v>
@@ -8147,26 +8147,26 @@
         <v>1</v>
       </c>
       <c r="AC59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI59" t="n">
         <v>7</v>
       </c>
-      <c r="AG59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI59" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ59" t="n">
         <v>1</v>
       </c>
@@ -8174,7 +8174,7 @@
         <v>1</v>
       </c>
       <c r="AL59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM59" s="3" t="inlineStr">
         <is>
@@ -8208,22 +8208,22 @@
         <v>1</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" s="2" t="n">
         <v>1</v>
@@ -8235,37 +8235,37 @@
         <v>0</v>
       </c>
       <c r="N60" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P60" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R60" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T60" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="V60" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X60" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y60" s="2" t="n">
         <v>0</v>
@@ -8280,26 +8280,26 @@
         <v>1</v>
       </c>
       <c r="AC60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE60" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI60" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="AG60" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH60" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI60" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ60" s="2" t="n">
         <v>1</v>
       </c>
@@ -8307,7 +8307,7 @@
         <v>1</v>
       </c>
       <c r="AL60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM60" s="3" t="inlineStr">
         <is>
@@ -8335,22 +8335,22 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
         <v>1</v>
@@ -8362,37 +8362,37 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61" t="n">
         <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T61" t="n">
         <v>0</v>
       </c>
       <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
         <v>7</v>
       </c>
-      <c r="V61" t="n">
-        <v>1</v>
-      </c>
       <c r="W61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y61" t="n">
         <v>0</v>
@@ -8407,26 +8407,26 @@
         <v>1</v>
       </c>
       <c r="AC61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI61" t="n">
         <v>7</v>
       </c>
-      <c r="AG61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ61" t="n">
         <v>1</v>
       </c>
@@ -8434,7 +8434,7 @@
         <v>1</v>
       </c>
       <c r="AL61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM61" s="3" t="inlineStr">
         <is>
@@ -8468,22 +8468,22 @@
         <v>1</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" s="2" t="n">
         <v>1</v>
@@ -8495,37 +8495,37 @@
         <v>0</v>
       </c>
       <c r="N62" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R62" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="V62" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X62" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y62" s="2" t="n">
         <v>0</v>
@@ -8540,26 +8540,26 @@
         <v>1</v>
       </c>
       <c r="AC62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE62" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI62" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="AG62" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH62" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI62" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AJ62" s="2" t="n">
         <v>1</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>1</v>
       </c>
       <c r="AL62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM62" s="3" t="inlineStr">
         <is>
@@ -8595,22 +8595,22 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" t="n">
         <v>1</v>
@@ -8622,37 +8622,37 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R63" t="n">
         <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
         <v>7</v>
       </c>
-      <c r="V63" t="n">
-        <v>1</v>
-      </c>
       <c r="W63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y63" t="n">
         <v>0</v>
@@ -8667,26 +8667,26 @@
         <v>1</v>
       </c>
       <c r="AC63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE63" t="n">
         <v>0</v>
       </c>
       <c r="AF63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI63" t="n">
         <v>7</v>
       </c>
-      <c r="AG63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH63" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI63" t="n">
-        <v>1</v>
-      </c>
       <c r="AJ63" t="n">
         <v>1</v>
       </c>
@@ -8694,16 +8694,16 @@
         <v>1</v>
       </c>
       <c r="AL63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM63" s="3" t="inlineStr">
         <is>
           <t>deviant</t>
         </is>
       </c>
-      <c r="AN63" s="3" t="inlineStr">
-        <is>
-          <t>deviant</t>
+      <c r="AN63" t="inlineStr">
+        <is>
+          <t>regular</t>
         </is>
       </c>
       <c r="AO63" t="inlineStr">
@@ -8728,22 +8728,22 @@
         <v>1</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="2" t="n">
         <v>1</v>
@@ -8755,37 +8755,37 @@
         <v>0</v>
       </c>
       <c r="N64" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P64" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R64" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U64" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="V64" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X64" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y64" s="2" t="n">
         <v>0</v>
@@ -8800,26 +8800,26 @@
         <v>1</v>
       </c>
       <c r="AC64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE64" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF64" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG64" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH64" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI64" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="AG64" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH64" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI64" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AJ64" s="2" t="n">
         <v>1</v>
       </c>
@@ -8827,7 +8827,7 @@
         <v>1</v>
       </c>
       <c r="AL64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM64" s="3" t="inlineStr">
         <is>
@@ -8849,19 +8849,19 @@
       <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -8870,7 +8870,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" t="n">
         <v>1</v>
@@ -8882,37 +8882,37 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P65" t="n">
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U65" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" t="n">
         <v>7</v>
       </c>
-      <c r="V65" t="n">
-        <v>1</v>
-      </c>
       <c r="W65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y65" t="n">
         <v>0</v>
@@ -8927,26 +8927,26 @@
         <v>1</v>
       </c>
       <c r="AC65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI65" t="n">
         <v>7</v>
       </c>
-      <c r="AG65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI65" t="n">
-        <v>1</v>
-      </c>
       <c r="AJ65" t="n">
         <v>1</v>
       </c>
@@ -8954,7 +8954,7 @@
         <v>1</v>
       </c>
       <c r="AL65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM65" s="3" t="inlineStr">
         <is>
@@ -8988,22 +8988,22 @@
         <v>1</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" s="2" t="n">
         <v>1</v>
@@ -9018,68 +9018,68 @@
         <v>2</v>
       </c>
       <c r="O66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P66" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R66" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U66" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="V66" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X66" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA66" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="Y66" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z66" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA66" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB66" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD66" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE66" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF66" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG66" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH66" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI66" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="AG66" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH66" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI66" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AJ66" s="2" t="n">
         <v>1</v>
       </c>
@@ -9087,7 +9087,7 @@
         <v>1</v>
       </c>
       <c r="AL66" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM66" s="3" t="inlineStr">
         <is>
@@ -9109,19 +9109,19 @@
       <c r="A67" t="inlineStr"/>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -9130,7 +9130,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
         <v>1</v>
@@ -9145,68 +9145,68 @@
         <v>2</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P67" t="n">
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R67" t="n">
         <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
         <v>7</v>
       </c>
-      <c r="V67" t="n">
-        <v>1</v>
-      </c>
       <c r="W67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA67" t="n">
         <v>2</v>
       </c>
-      <c r="Y67" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z67" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA67" t="n">
-        <v>1</v>
-      </c>
       <c r="AB67" t="n">
         <v>1</v>
       </c>
       <c r="AC67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI67" t="n">
         <v>7</v>
       </c>
-      <c r="AG67" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI67" t="n">
-        <v>1</v>
-      </c>
       <c r="AJ67" t="n">
         <v>1</v>
       </c>
@@ -9214,7 +9214,7 @@
         <v>1</v>
       </c>
       <c r="AL67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM67" s="3" t="inlineStr">
         <is>
@@ -9248,22 +9248,22 @@
         <v>1</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" s="2" t="n">
         <v>1</v>
@@ -9278,67 +9278,67 @@
         <v>2</v>
       </c>
       <c r="O68" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P68" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q68" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R68" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S68" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T68" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U68" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="V68" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W68" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X68" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA68" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="Y68" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z68" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA68" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB68" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC68" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD68" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE68" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF68" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG68" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH68" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI68" s="2" t="n">
         <v>7</v>
-      </c>
-      <c r="AG68" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH68" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI68" s="2" t="n">
-        <v>1</v>
       </c>
       <c r="AJ68" s="2" t="n">
         <v>1</v>
@@ -9369,28 +9369,28 @@
       <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
         <v>1</v>
@@ -9405,67 +9405,67 @@
         <v>2</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P69" t="n">
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R69" t="n">
         <v>0</v>
       </c>
       <c r="S69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U69" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" t="n">
         <v>7</v>
       </c>
-      <c r="V69" t="n">
-        <v>1</v>
-      </c>
       <c r="W69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA69" t="n">
         <v>2</v>
       </c>
-      <c r="Y69" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z69" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA69" t="n">
-        <v>1</v>
-      </c>
       <c r="AB69" t="n">
         <v>1</v>
       </c>
       <c r="AC69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE69" t="n">
         <v>0</v>
       </c>
       <c r="AF69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI69" t="n">
         <v>7</v>
-      </c>
-      <c r="AG69" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH69" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI69" t="n">
-        <v>1</v>
       </c>
       <c r="AJ69" t="n">
         <v>1</v>
@@ -9508,7 +9508,7 @@
         <v>1</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" s="2" t="n">
         <v>0</v>
@@ -9517,13 +9517,13 @@
         <v>1</v>
       </c>
       <c r="H70" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" s="2" t="n">
         <v>1</v>
@@ -9538,67 +9538,67 @@
         <v>2</v>
       </c>
       <c r="O70" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P70" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q70" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R70" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S70" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T70" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U70" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="V70" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W70" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X70" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA70" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="Y70" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z70" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA70" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB70" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC70" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD70" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE70" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF70" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG70" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH70" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI70" s="2" t="n">
         <v>7</v>
-      </c>
-      <c r="AG70" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH70" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI70" s="2" t="n">
-        <v>1</v>
       </c>
       <c r="AJ70" s="2" t="n">
         <v>1</v>
@@ -9629,13 +9629,13 @@
       <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
@@ -9644,13 +9644,13 @@
         <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
         <v>1</v>
@@ -9665,67 +9665,67 @@
         <v>2</v>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P71" t="n">
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R71" t="n">
         <v>0</v>
       </c>
       <c r="S71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
         <v>7</v>
       </c>
-      <c r="V71" t="n">
-        <v>1</v>
-      </c>
       <c r="W71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA71" t="n">
         <v>2</v>
       </c>
-      <c r="Y71" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z71" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA71" t="n">
-        <v>1</v>
-      </c>
       <c r="AB71" t="n">
         <v>1</v>
       </c>
       <c r="AC71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI71" t="n">
         <v>7</v>
-      </c>
-      <c r="AG71" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI71" t="n">
-        <v>1</v>
       </c>
       <c r="AJ71" t="n">
         <v>1</v>
@@ -9768,7 +9768,7 @@
         <v>1</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" s="2" t="n">
         <v>0</v>
@@ -9780,10 +9780,10 @@
         <v>1</v>
       </c>
       <c r="I72" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" s="2" t="n">
         <v>1</v>
@@ -9804,61 +9804,61 @@
         <v>0</v>
       </c>
       <c r="Q72" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R72" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S72" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T72" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U72" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V72" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="V72" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W72" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X72" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA72" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="Y72" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z72" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA72" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB72" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC72" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD72" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE72" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF72" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG72" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH72" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI72" s="2" t="n">
         <v>7</v>
-      </c>
-      <c r="AG72" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH72" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI72" s="2" t="n">
-        <v>1</v>
       </c>
       <c r="AJ72" s="2" t="n">
         <v>1</v>
@@ -9895,7 +9895,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -9907,10 +9907,10 @@
         <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
         <v>1</v>
@@ -9931,61 +9931,61 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R73" t="n">
         <v>0</v>
       </c>
       <c r="S73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
         <v>7</v>
       </c>
-      <c r="V73" t="n">
-        <v>1</v>
-      </c>
       <c r="W73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA73" t="n">
         <v>2</v>
       </c>
-      <c r="Y73" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z73" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA73" t="n">
-        <v>1</v>
-      </c>
       <c r="AB73" t="n">
         <v>1</v>
       </c>
       <c r="AC73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE73" t="n">
         <v>1</v>
       </c>
       <c r="AF73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI73" t="n">
         <v>7</v>
-      </c>
-      <c r="AG73" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI73" t="n">
-        <v>1</v>
       </c>
       <c r="AJ73" t="n">
         <v>1</v>
@@ -10028,7 +10028,7 @@
         <v>1</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" s="2" t="n">
         <v>0</v>
@@ -10040,10 +10040,10 @@
         <v>1</v>
       </c>
       <c r="I74" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" s="2" t="n">
         <v>1</v>
@@ -10064,7 +10064,7 @@
         <v>0</v>
       </c>
       <c r="Q74" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R74" s="2" t="n">
         <v>0</v>
@@ -10073,52 +10073,52 @@
         <v>1</v>
       </c>
       <c r="T74" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="V74" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W74" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y74" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA74" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="Y74" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z74" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA74" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB74" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC74" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD74" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE74" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF74" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH74" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI74" s="2" t="n">
         <v>7</v>
-      </c>
-      <c r="AG74" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH74" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI74" s="2" t="n">
-        <v>1</v>
       </c>
       <c r="AJ74" s="2" t="n">
         <v>1</v>
@@ -10155,10 +10155,10 @@
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -10167,10 +10167,10 @@
         <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
         <v>1</v>
@@ -10191,7 +10191,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
@@ -10200,34 +10200,34 @@
         <v>1</v>
       </c>
       <c r="T75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U75" t="n">
+        <v>1</v>
+      </c>
+      <c r="V75" t="n">
         <v>7</v>
       </c>
-      <c r="V75" t="n">
-        <v>1</v>
-      </c>
       <c r="W75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X75" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z75" t="n">
         <v>2</v>
       </c>
-      <c r="Y75" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z75" t="n">
-        <v>1</v>
-      </c>
       <c r="AA75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB75" t="n">
         <v>1</v>
       </c>
       <c r="AC75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD75" t="n">
         <v>1</v>
@@ -10236,16 +10236,16 @@
         <v>1</v>
       </c>
       <c r="AF75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI75" t="n">
         <v>7</v>
-      </c>
-      <c r="AG75" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH75" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI75" t="n">
-        <v>1</v>
       </c>
       <c r="AJ75" t="n">
         <v>1</v>
@@ -10288,7 +10288,7 @@
         <v>1</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" s="2" t="n">
         <v>0</v>
@@ -10300,10 +10300,10 @@
         <v>1</v>
       </c>
       <c r="I76" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" s="2" t="n">
         <v>1</v>
@@ -10324,38 +10324,38 @@
         <v>0</v>
       </c>
       <c r="Q76" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R76" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S76" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T76" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U76" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V76" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="V76" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W76" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X76" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y76" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA76" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="Y76" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z76" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA76" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB76" s="2" t="n">
         <v>1</v>
       </c>
@@ -10363,22 +10363,22 @@
         <v>1</v>
       </c>
       <c r="AD76" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE76" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF76" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG76" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH76" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI76" s="2" t="n">
         <v>7</v>
-      </c>
-      <c r="AG76" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH76" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI76" s="2" t="n">
-        <v>1</v>
       </c>
       <c r="AJ76" s="2" t="n">
         <v>1</v>
@@ -10415,7 +10415,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -10427,10 +10427,10 @@
         <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" t="n">
         <v>1</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N77" t="n">
         <v>2</v>
@@ -10451,38 +10451,38 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S77" t="n">
         <v>1</v>
       </c>
       <c r="T77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U77" t="n">
+        <v>1</v>
+      </c>
+      <c r="V77" t="n">
         <v>7</v>
       </c>
-      <c r="V77" t="n">
+      <c r="W77" t="n">
+        <v>1</v>
+      </c>
+      <c r="X77" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA77" t="n">
         <v>2</v>
       </c>
-      <c r="W77" t="n">
-        <v>0</v>
-      </c>
-      <c r="X77" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y77" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z77" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA77" t="n">
-        <v>1</v>
-      </c>
       <c r="AB77" t="n">
         <v>1</v>
       </c>
@@ -10496,16 +10496,16 @@
         <v>1</v>
       </c>
       <c r="AF77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI77" t="n">
         <v>7</v>
-      </c>
-      <c r="AG77" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH77" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI77" t="n">
-        <v>1</v>
       </c>
       <c r="AJ77" t="n">
         <v>1</v>
@@ -10563,7 +10563,7 @@
         <v>1</v>
       </c>
       <c r="J78" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" s="2" t="n">
         <v>1</v>
@@ -10584,38 +10584,38 @@
         <v>0</v>
       </c>
       <c r="Q78" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R78" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S78" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T78" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U78" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V78" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="V78" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W78" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X78" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y78" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z78" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA78" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="Y78" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z78" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA78" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB78" s="2" t="n">
         <v>1</v>
       </c>
@@ -10623,22 +10623,22 @@
         <v>1</v>
       </c>
       <c r="AD78" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE78" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF78" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG78" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH78" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI78" s="2" t="n">
         <v>7</v>
-      </c>
-      <c r="AG78" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH78" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI78" s="2" t="n">
-        <v>1</v>
       </c>
       <c r="AJ78" s="2" t="n">
         <v>1</v>
@@ -10690,7 +10690,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79" t="n">
         <v>1</v>
@@ -10699,7 +10699,7 @@
         <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N79" t="n">
         <v>2</v>
@@ -10711,38 +10711,38 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S79" t="n">
         <v>1</v>
       </c>
       <c r="T79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U79" t="n">
+        <v>1</v>
+      </c>
+      <c r="V79" t="n">
         <v>7</v>
       </c>
-      <c r="V79" t="n">
+      <c r="W79" t="n">
+        <v>1</v>
+      </c>
+      <c r="X79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA79" t="n">
         <v>2</v>
       </c>
-      <c r="W79" t="n">
-        <v>0</v>
-      </c>
-      <c r="X79" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y79" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA79" t="n">
-        <v>1</v>
-      </c>
       <c r="AB79" t="n">
         <v>1</v>
       </c>
@@ -10756,16 +10756,16 @@
         <v>1</v>
       </c>
       <c r="AF79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI79" t="n">
         <v>7</v>
-      </c>
-      <c r="AG79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI79" t="n">
-        <v>1</v>
       </c>
       <c r="AJ79" t="n">
         <v>1</v>
